--- a/QR_TestData.xlsx
+++ b/QR_TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="245">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -645,12 +645,6 @@
     <t>8722747239</t>
   </si>
   <si>
-    <t>8722747240</t>
-  </si>
-  <si>
-    <t>8722747241</t>
-  </si>
-  <si>
     <t>QR PassengerTwo</t>
   </si>
   <si>
@@ -660,24 +654,12 @@
     <t>1000000001</t>
   </si>
   <si>
-    <t>9886174866</t>
-  </si>
-  <si>
-    <t>9886174860</t>
-  </si>
-  <si>
-    <t>8971001280</t>
-  </si>
-  <si>
     <t>9886174863</t>
   </si>
   <si>
     <t>8971009048</t>
   </si>
   <si>
-    <t>12228569023</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -714,9 +696,6 @@
     <t>9886174861</t>
   </si>
   <si>
-    <t>8722747127</t>
-  </si>
-  <si>
     <t>8971001210</t>
   </si>
   <si>
@@ -754,13 +733,37 @@
   </si>
   <si>
     <t>8971001200</t>
+  </si>
+  <si>
+    <t>9000000005</t>
+  </si>
+  <si>
+    <t>1000000003</t>
+  </si>
+  <si>
+    <t>2228569024</t>
+  </si>
+  <si>
+    <t>9000000006</t>
+  </si>
+  <si>
+    <t>9886174867</t>
+  </si>
+  <si>
+    <t>8722747243</t>
+  </si>
+  <si>
+    <t>8722747246</t>
+  </si>
+  <si>
+    <t>8722747172</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,6 +790,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -837,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -870,6 +880,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1181,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1199,7 +1210,7 @@
     <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,12 +1233,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1236,12 +1247,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1250,12 +1261,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1264,15 +1275,15 @@
         <v>10</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1281,12 +1292,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1295,12 +1306,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -1309,12 +1320,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1323,12 +1334,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1">
+    <row r="9" spans="1:10" s="10" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -1337,12 +1348,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="10" customFormat="1">
+    <row r="10" spans="1:10" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
         <v>181</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1351,12 +1362,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="22" customFormat="1">
+    <row r="11" spans="1:10" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>12</v>
@@ -1371,7 +1382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="22" customFormat="1">
+    <row r="12" spans="1:10" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
         <v>34</v>
       </c>
@@ -1400,12 +1411,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="22" customFormat="1">
+    <row r="13" spans="1:10" s="22" customFormat="1">
       <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>12</v>
@@ -1423,18 +1434,18 @@
         <v>12</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="22" customFormat="1">
       <c r="A14" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>12</v>
@@ -1443,27 +1454,28 @@
         <v>68</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="22" customFormat="1">
+        <v>222</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" s="22" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>12</v>
@@ -1472,7 +1484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -1907,7 +1919,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -1956,7 +1968,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>12</v>
@@ -1974,7 +1986,7 @@
         <v>46</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>12</v>
@@ -2003,7 +2015,7 @@
         <v>71</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H36" s="23" t="s">
         <v>12</v>
@@ -2012,7 +2024,7 @@
         <v>154</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K36" s="23" t="s">
         <v>12</v>
@@ -2161,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>70</v>
@@ -2176,19 +2188,19 @@
         <v>12</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K40" s="30" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L40" s="31" t="s">
         <v>12</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="14" customFormat="1">
@@ -2391,10 +2403,10 @@
     </row>
     <row r="48" spans="1:16" s="22" customFormat="1">
       <c r="A48" s="22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>12</v>
@@ -2409,7 +2421,7 @@
         <v>60</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H48" s="23" t="s">
         <v>12</v>
@@ -2423,7 +2435,7 @@
         <v>84</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>12</v>
@@ -2497,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H50" s="23" t="s">
         <v>12</v>
@@ -2708,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="N55" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O55" s="22" t="s">
         <v>49</v>
@@ -2758,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="N56" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O56" s="22" t="s">
         <v>49</v>
@@ -2860,7 +2872,7 @@
         <v>66</v>
       </c>
       <c r="N59" s="28" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O59" s="23" t="s">
         <v>12</v>
@@ -2869,7 +2881,7 @@
         <v>155</v>
       </c>
       <c r="Q59" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="R59" s="28" t="s">
         <v>65</v>
@@ -2889,7 +2901,7 @@
         <v>162</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>108</v>
@@ -2925,10 +2937,10 @@
         <v>155</v>
       </c>
       <c r="Q60" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="R60" s="28" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="22" customFormat="1">
@@ -2936,13 +2948,13 @@
         <v>190</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>182</v>
@@ -2975,7 +2987,7 @@
         <v>186</v>
       </c>
       <c r="O61" s="25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P61" s="23"/>
     </row>
@@ -2984,13 +2996,13 @@
         <v>191</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>182</v>
@@ -3083,7 +3095,7 @@
     <hyperlink ref="H13" r:id="rId50"/>
     <hyperlink ref="I13" r:id="rId51"/>
     <hyperlink ref="C14" r:id="rId52"/>
-    <hyperlink ref="G14" r:id="rId53"/>
+    <hyperlink ref="G14" r:id="rId53" display="Tcbt@123"/>
     <hyperlink ref="H14" r:id="rId54"/>
     <hyperlink ref="I14" r:id="rId55"/>
     <hyperlink ref="G12" r:id="rId56"/>
